--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -334,7 +334,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
